--- a/output/ValueSet-valueset-fake.xlsx
+++ b/output/ValueSet-valueset-fake.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,19 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>Nils Haendly</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -248,7 +242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -350,28 +344,20 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -393,34 +379,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-valueset-fake.xlsx
+++ b/output/ValueSet-valueset-fake.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,19 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Nils Haendly</t>
+    <t>HL7 International - [Some] Work Group</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -242,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -344,20 +350,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -379,34 +393,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
